--- a/Data/Processing/2024-02-02/ACCELYA.xlsx
+++ b/Data/Processing/2024-02-02/ACCELYA.xlsx
@@ -1313,10 +1313,10 @@
         <v>44980</v>
       </c>
       <c r="B16">
-        <v>1113.52</v>
+        <v>1113.53</v>
       </c>
       <c r="C16">
-        <v>1113.52</v>
+        <v>1113.53</v>
       </c>
       <c r="D16">
         <v>1071.68</v>
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-3.9</v>
+        <v>-3.91</v>
       </c>
       <c r="L16">
-        <v>11.22</v>
+        <v>11.23</v>
       </c>
       <c r="M16">
-        <v>0.9499999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="N16">
         <v>3.76</v>
@@ -2722,7 +2722,7 @@
         <v>1195.3</v>
       </c>
       <c r="E44">
-        <v>1198.97</v>
+        <v>1198.96</v>
       </c>
       <c r="F44">
         <v>1269.48</v>
@@ -2775,7 +2775,7 @@
         <v>1238.71</v>
       </c>
       <c r="F45">
-        <v>1198.97</v>
+        <v>1198.96</v>
       </c>
       <c r="G45">
         <v>43821</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="M45">
         <v>-1.14</v>
@@ -2802,7 +2802,7 @@
         <v>4.19</v>
       </c>
       <c r="O45">
-        <v>1130.69</v>
+        <v>1130.689772727273</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4.99</v>
       </c>
       <c r="O46">
-        <v>1132.200681818182</v>
+        <v>1132.200454545455</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>1.92</v>
       </c>
       <c r="O47">
-        <v>1134.279772727273</v>
+        <v>1134.279545454546</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>2.84</v>
       </c>
       <c r="O48">
-        <v>1135.879090909091</v>
+        <v>1135.878863636364</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>11.08</v>
       </c>
       <c r="O49">
-        <v>1139.553181818182</v>
+        <v>1139.552954545455</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>45035</v>
       </c>
       <c r="B50">
-        <v>1393.09</v>
+        <v>1393.1</v>
       </c>
       <c r="C50">
         <v>1412.11</v>
@@ -3043,7 +3043,7 @@
         <v>-7.5</v>
       </c>
       <c r="L50">
-        <v>20.44</v>
+        <v>20.45</v>
       </c>
       <c r="M50">
         <v>2.24</v>
@@ -3052,7 +3052,7 @@
         <v>8.34</v>
       </c>
       <c r="O50">
-        <v>1142.528181818182</v>
+        <v>1142.527954545454</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>3.6</v>
       </c>
       <c r="O51">
-        <v>1146.761818181818</v>
+        <v>1146.761590909091</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>1.73</v>
       </c>
       <c r="O52">
-        <v>1151.816818181818</v>
+        <v>1151.816590909091</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1.37</v>
       </c>
       <c r="O53">
-        <v>1157.766590909091</v>
+        <v>1157.766363636364</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>3.29</v>
       </c>
       <c r="O54">
-        <v>1163.596363636364</v>
+        <v>1163.596136363636</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>2.49</v>
       </c>
       <c r="O55">
-        <v>1168.307727272727</v>
+        <v>1168.3075</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>1.85</v>
       </c>
       <c r="O56">
-        <v>1173.584318181818</v>
+        <v>1173.584090909091</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1.83</v>
       </c>
       <c r="O57">
-        <v>1178.766818181818</v>
+        <v>1178.766590909091</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>1.63</v>
       </c>
       <c r="O58">
-        <v>1183.691136363636</v>
+        <v>1183.690909090909</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>1.28</v>
       </c>
       <c r="O59">
-        <v>1189.130909090909</v>
+        <v>1189.130681818182</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>3.14</v>
       </c>
       <c r="O60">
-        <v>1195.731136363636</v>
+        <v>1195.730909090909</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="O61">
-        <v>1198.954545454545</v>
+        <v>1198.954318181818</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>2.51</v>
       </c>
       <c r="O62">
-        <v>1202.775454545455</v>
+        <v>1202.775227272727</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>2.47</v>
       </c>
       <c r="O63">
-        <v>1205.779545454546</v>
+        <v>1205.779318181818</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>2.48</v>
       </c>
       <c r="O64">
-        <v>1208.593409090909</v>
+        <v>1208.593181818182</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>1.44</v>
       </c>
       <c r="O65">
-        <v>1210.846363636364</v>
+        <v>1210.846136363636</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -3852,7 +3852,7 @@
         <v>1.79</v>
       </c>
       <c r="O66">
-        <v>1212.860454545455</v>
+        <v>1212.860227272727</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -3902,7 +3902,7 @@
         <v>1.18</v>
       </c>
       <c r="O67">
-        <v>1215.227954545455</v>
+        <v>1215.227727272727</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>2.05</v>
       </c>
       <c r="O68">
-        <v>1217.640909090909</v>
+        <v>1217.640681818182</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>3.49</v>
       </c>
       <c r="O69">
-        <v>1220.387727272727</v>
+        <v>1220.3875</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>2.08</v>
       </c>
       <c r="O70">
-        <v>1223.028636363636</v>
+        <v>1223.028409090909</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>1.79</v>
       </c>
       <c r="O71">
-        <v>1226.011136363636</v>
+        <v>1226.010909090909</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>1.73</v>
       </c>
       <c r="O72">
-        <v>1229.613863636364</v>
+        <v>1229.613636363636</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>2.49</v>
       </c>
       <c r="O73">
-        <v>1233.029545454546</v>
+        <v>1233.029318181818</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>2.55</v>
       </c>
       <c r="O74">
-        <v>1237.114090909091</v>
+        <v>1237.113863636364</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0.93</v>
       </c>
       <c r="O75">
-        <v>1239.283863636364</v>
+        <v>1239.283636363636</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>3.79</v>
       </c>
       <c r="O76">
-        <v>1242.870227272727</v>
+        <v>1242.87</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>2.29</v>
       </c>
       <c r="O77">
-        <v>1244.4825</v>
+        <v>1244.482272727273</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>4.31</v>
       </c>
       <c r="O78">
-        <v>1246.984090909091</v>
+        <v>1246.983863636364</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2.2</v>
       </c>
       <c r="O79">
-        <v>1249.955681818182</v>
+        <v>1249.955454545455</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>1.27</v>
       </c>
       <c r="O80">
-        <v>1253.804772727273</v>
+        <v>1253.804545454545</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>2.76</v>
       </c>
       <c r="O81">
-        <v>1258.067727272727</v>
+        <v>1258.0675</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>2.85</v>
       </c>
       <c r="O82">
-        <v>1262.266818181818</v>
+        <v>1262.266590909091</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>1.47</v>
       </c>
       <c r="O83">
-        <v>1266.636590909091</v>
+        <v>1266.636363636364</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.5</v>
       </c>
       <c r="O84">
-        <v>1269.531590909091</v>
+        <v>1269.531363636363</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>2.87</v>
       </c>
       <c r="O85">
-        <v>1271.059545454545</v>
+        <v>1271.059318181818</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>1.13</v>
       </c>
       <c r="O86">
-        <v>1271.510227272727</v>
+        <v>1271.51</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0.76</v>
       </c>
       <c r="O87">
-        <v>1271.194545454546</v>
+        <v>1271.194318181818</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>1293.15</v>
       </c>
       <c r="D90">
-        <v>1268.9</v>
+        <v>1268.91</v>
       </c>
       <c r="E90">
         <v>1274.99</v>
@@ -5049,7 +5049,7 @@
         <v>0.49</v>
       </c>
       <c r="N90">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O90">
         <v>1273.887272727273</v>
@@ -6002,7 +6002,7 @@
         <v>2.72</v>
       </c>
       <c r="O109">
-        <v>1256.294545454546</v>
+        <v>1256.294545454545</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>2.34</v>
       </c>
       <c r="O127">
-        <v>1288.777954545454</v>
+        <v>1288.777954545455</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>2.86</v>
       </c>
       <c r="O137">
-        <v>1315.261136363637</v>
+        <v>1315.261136363636</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>1609.38</v>
       </c>
       <c r="D165">
-        <v>1561.45</v>
+        <v>1561.46</v>
       </c>
       <c r="E165">
         <v>1582.14</v>
@@ -9302,7 +9302,7 @@
         <v>1.8</v>
       </c>
       <c r="O175">
-        <v>1518.886136363637</v>
+        <v>1518.886136363636</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>5.09</v>
       </c>
       <c r="O179">
-        <v>1522.505454545454</v>
+        <v>1522.505454545455</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>3.63</v>
       </c>
       <c r="O182">
-        <v>1515.010454545454</v>
+        <v>1515.010454545455</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -9702,7 +9702,7 @@
         <v>2.93</v>
       </c>
       <c r="O183">
-        <v>1512.797045454545</v>
+        <v>1512.797045454546</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>2.36</v>
       </c>
       <c r="O213">
-        <v>1412.968863636364</v>
+        <v>1412.968863636363</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>2.38</v>
       </c>
       <c r="O225">
-        <v>1367.687045454546</v>
+        <v>1367.687045454545</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>2.9</v>
       </c>
       <c r="O231">
-        <v>1381.002954545455</v>
+        <v>1381.002954545454</v>
       </c>
       <c r="P231">
         <v>0</v>
